--- a/soberano/test_cases/currency_disable_test_cases.xlsx
+++ b/soberano/test_cases/currency_disable_test_cases.xlsx
@@ -34,31 +34,31 @@
     <t xml:space="preserve">User1 is allowed to disable currency</t>
   </si>
   <si>
-    <t xml:space="preserve">mcc9</t>
+    <t xml:space="preserve">mc9</t>
   </si>
   <si>
     <t xml:space="preserve">User2 is NOT allowed to disable currency</t>
   </si>
   <si>
-    <t xml:space="preserve">mcc8</t>
+    <t xml:space="preserve">mc8</t>
   </si>
   <si>
     <t xml:space="preserve">User3 is allowed to disable currency</t>
   </si>
   <si>
-    <t xml:space="preserve">mcc7</t>
+    <t xml:space="preserve">mc7</t>
   </si>
   <si>
     <t xml:space="preserve">User4 is allowed to disable currency</t>
   </si>
   <si>
-    <t xml:space="preserve">mcc6</t>
+    <t xml:space="preserve">mc6</t>
   </si>
   <si>
     <t xml:space="preserve">User5 is NOT allowed to disable currency</t>
   </si>
   <si>
-    <t xml:space="preserve">mcc5</t>
+    <t xml:space="preserve">mc5</t>
   </si>
 </sst>
 </file>
@@ -182,7 +182,7 @@
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
